--- a/solutions/dell/cyber-security/safeid-authentication/presales/level-of-effort-estimate.xlsx
+++ b/solutions/dell/cyber-security/safeid-authentication/presales/level-of-effort-estimate.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Scope Assumptions'!$A$2:$G$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Estimate Settings'!$A$2:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LOE'!$A$2:$K$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LOE'!$A$2:$K$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Credits'!$A$2:$C$5</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1008,32 +1008,32 @@
       </c>
       <c r="B3" s="38" t="inlineStr">
         <is>
-          <t>Number of Workstations</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
         <is>
-          <t>10 Dell Precision 7960 units</t>
+          <t>500 users with MFA tokens</t>
         </is>
       </c>
       <c r="D3" s="38" t="inlineStr">
         <is>
-          <t>3 workstations</t>
+          <t>100-250 users</t>
         </is>
       </c>
       <c r="E3" s="38" t="inlineStr">
         <is>
-          <t>10 workstations</t>
+          <t>500 users</t>
         </is>
       </c>
       <c r="F3" s="38" t="inlineStr">
         <is>
-          <t>25+ workstations</t>
+          <t>1000+ users</t>
         </is>
       </c>
       <c r="G3" s="38" t="inlineStr">
         <is>
-          <t>AI/ML workstation deployment scale</t>
+          <t>User base and token quantity</t>
         </is>
       </c>
     </row>
@@ -1045,32 +1045,32 @@
       </c>
       <c r="B4" s="41" t="inlineStr">
         <is>
-          <t>GPU Configuration</t>
+          <t>YubiKey Tokens</t>
         </is>
       </c>
       <c r="C4" s="39" t="inlineStr">
         <is>
-          <t>NVIDIA RTX A6000 48GB</t>
+          <t>YubiKey 5 NFC hardware tokens</t>
         </is>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
-          <t>RTX A5000 24GB</t>
+          <t>YubiKey 5 USB-A</t>
         </is>
       </c>
       <c r="E4" s="41" t="inlineStr">
         <is>
-          <t>RTX A6000 48GB</t>
+          <t>YubiKey 5 NFC</t>
         </is>
       </c>
       <c r="F4" s="41" t="inlineStr">
         <is>
-          <t>RTX A6000 or A100 80GB</t>
+          <t>YubiKey Bio (biometric)</t>
         </is>
       </c>
       <c r="G4" s="41" t="inlineStr">
         <is>
-          <t>GPU memory and compute requirements</t>
+          <t>Token type and features</t>
         </is>
       </c>
     </row>
@@ -1082,32 +1082,32 @@
       </c>
       <c r="B5" s="38" t="inlineStr">
         <is>
-          <t>Data Science Tools</t>
+          <t>VPN Integration</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
         <is>
-          <t>Standard stack (PyTorch TensorFlow)</t>
+          <t>Cisco AnyConnect RADIUS MFA</t>
         </is>
       </c>
       <c r="D5" s="38" t="inlineStr">
         <is>
-          <t>Jupyter only</t>
+          <t>No VPN</t>
         </is>
       </c>
       <c r="E5" s="38" t="inlineStr">
         <is>
-          <t>Full stack (Jupyter VS Code TensorBoard)</t>
+          <t>Single VPN platform</t>
         </is>
       </c>
       <c r="F5" s="38" t="inlineStr">
         <is>
-          <t>Advanced MLOps platform</t>
+          <t>Multi-vendor VPN</t>
         </is>
       </c>
       <c r="G5" s="38" t="inlineStr">
         <is>
-          <t>AI/ML framework and tooling complexity</t>
+          <t>VPN authentication complexity</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="B6" s="41" t="inlineStr">
         <is>
-          <t>Shared Storage</t>
+          <t>Cloud SSO</t>
         </is>
       </c>
       <c r="C6" s="39" t="inlineStr">
         <is>
-          <t>Dell PowerScale F600 100TB NAS</t>
+          <t>Microsoft 365 and AWS SAML SSO</t>
         </is>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
-          <t>Local storage only</t>
+          <t>No cloud SSO</t>
         </is>
       </c>
       <c r="E6" s="41" t="inlineStr">
         <is>
-          <t>Shared NAS 50-100TB</t>
+          <t>1-3 cloud apps</t>
         </is>
       </c>
       <c r="F6" s="41" t="inlineStr">
         <is>
-          <t>Enterprise NAS 200TB+ with replication</t>
+          <t>5+ cloud apps</t>
         </is>
       </c>
       <c r="G6" s="41" t="inlineStr">
         <is>
-          <t>Centralized dataset and model storage</t>
+          <t>Cloud application SSO scope</t>
         </is>
       </c>
     </row>
@@ -1156,32 +1156,32 @@
       </c>
       <c r="B7" s="38" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>User Distribution</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
         <is>
-          <t>10 concurrent users</t>
+          <t>80% on-site 20% remote</t>
         </is>
       </c>
       <c r="D7" s="38" t="inlineStr">
         <is>
-          <t>3 users</t>
+          <t>100% on-site</t>
         </is>
       </c>
       <c r="E7" s="38" t="inlineStr">
         <is>
-          <t>10 users</t>
+          <t>Hybrid workforce</t>
         </is>
       </c>
       <c r="F7" s="38" t="inlineStr">
         <is>
-          <t>25+ users</t>
+          <t>100% remote</t>
         </is>
       </c>
       <c r="G7" s="38" t="inlineStr">
         <is>
-          <t>Active data science team size</t>
+          <t>Token shipping and enrollment logistics</t>
         </is>
       </c>
     </row>
@@ -1193,32 +1193,32 @@
       </c>
       <c r="B8" s="41" t="inlineStr">
         <is>
-          <t>User Roles</t>
+          <t>Compliance Requirement</t>
         </is>
       </c>
       <c r="C8" s="39" t="inlineStr">
         <is>
-          <t>2 roles (data scientist admin)</t>
+          <t>CMMC Level 2 certification</t>
         </is>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
-          <t>Single role</t>
+          <t>No compliance</t>
         </is>
       </c>
       <c r="E8" s="41" t="inlineStr">
         <is>
-          <t>2-3 roles</t>
+          <t>CMMC or NIST 800-63</t>
         </is>
       </c>
       <c r="F8" s="41" t="inlineStr">
         <is>
-          <t>Complex role-based access</t>
+          <t>Multiple standards</t>
         </is>
       </c>
       <c r="G8" s="41" t="inlineStr">
         <is>
-          <t>RBAC and storage permissions</t>
+          <t>Compliance-driven phishing resistance</t>
         </is>
       </c>
     </row>
@@ -1230,32 +1230,32 @@
       </c>
       <c r="B9" s="38" t="inlineStr">
         <is>
-          <t>Dataset Size per Project</t>
+          <t>Authentication Volume</t>
         </is>
       </c>
       <c r="C9" s="39" t="inlineStr">
         <is>
-          <t>5TB average dataset size</t>
+          <t>10000 daily authentications</t>
         </is>
       </c>
       <c r="D9" s="38" t="inlineStr">
         <is>
-          <t>1-2TB datasets</t>
+          <t>Low volume</t>
         </is>
       </c>
       <c r="E9" s="38" t="inlineStr">
         <is>
-          <t>5TB datasets</t>
+          <t>Medium volume</t>
         </is>
       </c>
       <c r="F9" s="38" t="inlineStr">
         <is>
-          <t>10TB+ datasets</t>
+          <t>High volume</t>
         </is>
       </c>
       <c r="G9" s="38" t="inlineStr">
         <is>
-          <t>Training data volume requirements</t>
+          <t>Authentication platform capacity</t>
         </is>
       </c>
     </row>
@@ -1267,32 +1267,32 @@
       </c>
       <c r="B10" s="41" t="inlineStr">
         <is>
-          <t>Model Checkpoint Storage</t>
+          <t>Audit Retention</t>
         </is>
       </c>
       <c r="C10" s="39" t="inlineStr">
         <is>
-          <t>2TB model storage requirements</t>
+          <t>3 year audit log retention</t>
         </is>
       </c>
       <c r="D10" s="41" t="inlineStr">
         <is>
-          <t>500GB checkpoints</t>
+          <t>1 year</t>
         </is>
       </c>
       <c r="E10" s="41" t="inlineStr">
         <is>
-          <t>2TB checkpoints</t>
+          <t>3 years</t>
         </is>
       </c>
       <c r="F10" s="41" t="inlineStr">
         <is>
-          <t>5TB+ model versioning</t>
+          <t>7 years</t>
         </is>
       </c>
       <c r="G10" s="41" t="inlineStr">
         <is>
-          <t>Saved model and checkpoint capacity</t>
+          <t>Compliance and storage requirements</t>
         </is>
       </c>
     </row>
@@ -1304,32 +1304,32 @@
       </c>
       <c r="B11" s="38" t="inlineStr">
         <is>
-          <t>Network Connectivity</t>
+          <t>Authentication Platform</t>
         </is>
       </c>
       <c r="C11" s="39" t="inlineStr">
         <is>
-          <t>10GbE to shared storage</t>
+          <t>Dell SafeID Enterprise</t>
         </is>
       </c>
       <c r="D11" s="38" t="inlineStr">
         <is>
-          <t>1GbE standard</t>
+          <t>SafeID Standard</t>
         </is>
       </c>
       <c r="E11" s="38" t="inlineStr">
         <is>
-          <t>10GbE recommended</t>
+          <t>SafeID Enterprise</t>
         </is>
       </c>
       <c r="F11" s="38" t="inlineStr">
         <is>
-          <t>25GbE or higher</t>
+          <t>HA clustered</t>
         </is>
       </c>
       <c r="G11" s="38" t="inlineStr">
         <is>
-          <t>Network bandwidth for data loading</t>
+          <t>Platform tier and HA requirements</t>
         </is>
       </c>
     </row>
@@ -1341,32 +1341,32 @@
       </c>
       <c r="B12" s="41" t="inlineStr">
         <is>
-          <t>Workstation Performance</t>
+          <t>Identity Provider</t>
         </is>
       </c>
       <c r="C12" s="39" t="inlineStr">
         <is>
-          <t>Dell Precision 7960 dual Xeon Gold</t>
+          <t>Active Directory integration</t>
         </is>
       </c>
       <c r="D12" s="41" t="inlineStr">
         <is>
-          <t>Standard config</t>
+          <t>Local accounts</t>
         </is>
       </c>
       <c r="E12" s="41" t="inlineStr">
         <is>
-          <t>High-performance config</t>
+          <t>AD LDAP</t>
         </is>
       </c>
       <c r="F12" s="41" t="inlineStr">
         <is>
-          <t>Maximum performance with liquid cooling</t>
+          <t>Azure AD hybrid</t>
         </is>
       </c>
       <c r="G12" s="41" t="inlineStr">
         <is>
-          <t>CPU and system performance tier</t>
+          <t>Identity management complexity</t>
         </is>
       </c>
     </row>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="B13" s="38" t="inlineStr">
         <is>
-          <t>Operating System</t>
+          <t>Operating Systems</t>
         </is>
       </c>
       <c r="C13" s="39" t="inlineStr">
         <is>
-          <t>Ubuntu 22.04 LTS with CUDA</t>
+          <t>Windows 10 11 workstations</t>
         </is>
       </c>
       <c r="D13" s="38" t="inlineStr">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="E13" s="38" t="inlineStr">
         <is>
-          <t>Ubuntu or CentOS</t>
+          <t>Windows + Linux</t>
         </is>
       </c>
       <c r="F13" s="38" t="inlineStr">
         <is>
-          <t>Multi-OS with custom kernels</t>
+          <t>Windows Linux macOS</t>
         </is>
       </c>
       <c r="G13" s="38" t="inlineStr">
         <is>
-          <t>OS standardization and support</t>
+          <t>Platform diversity and support</t>
         </is>
       </c>
     </row>
@@ -1415,32 +1415,32 @@
       </c>
       <c r="B14" s="41" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>Phishing Resistance</t>
         </is>
       </c>
       <c r="C14" s="39" t="inlineStr">
         <is>
-          <t>Standard file permissions and SSH</t>
+          <t>FIDO2 phishing-resistant MFA</t>
         </is>
       </c>
       <c r="D14" s="41" t="inlineStr">
         <is>
-          <t>Basic access</t>
+          <t>SMS TOTP (not resistant)</t>
         </is>
       </c>
       <c r="E14" s="41" t="inlineStr">
         <is>
-          <t>LDAP/AD integration</t>
+          <t>FIDO2 WebAuthn</t>
         </is>
       </c>
       <c r="F14" s="41" t="inlineStr">
         <is>
-          <t>Advanced PAM and audit logging</t>
+          <t>FIDO2 + PIV smart card</t>
         </is>
       </c>
       <c r="G14" s="41" t="inlineStr">
         <is>
-          <t>Authentication and authorization</t>
+          <t>Compliance and security requirements</t>
         </is>
       </c>
     </row>
@@ -1452,32 +1452,32 @@
       </c>
       <c r="B15" s="38" t="inlineStr">
         <is>
-          <t>Data Classification</t>
+          <t>Privileged Access</t>
         </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
         <is>
-          <t>Unclassified research data</t>
+          <t>Separate admin YubiKeys</t>
         </is>
       </c>
       <c r="D15" s="38" t="inlineStr">
         <is>
-          <t>Public data</t>
+          <t>Same tokens</t>
         </is>
       </c>
       <c r="E15" s="38" t="inlineStr">
         <is>
-          <t>Sensitive research</t>
+          <t>Separate admin tokens</t>
         </is>
       </c>
       <c r="F15" s="38" t="inlineStr">
         <is>
-          <t>Regulated data (HIPAA ITAR)</t>
+          <t>PAM integration</t>
         </is>
       </c>
       <c r="G15" s="38" t="inlineStr">
         <is>
-          <t>Data sensitivity and compliance</t>
+          <t>Privileged account protection</t>
         </is>
       </c>
     </row>
@@ -1489,32 +1489,32 @@
       </c>
       <c r="B16" s="41" t="inlineStr">
         <is>
-          <t>Training Performance</t>
+          <t>User Enrollment Time</t>
         </is>
       </c>
       <c r="C16" s="39" t="inlineStr">
         <is>
-          <t>Target: 80% GPU utilization average</t>
+          <t>&lt;5 minute self-service enrollment</t>
         </is>
       </c>
       <c r="D16" s="41" t="inlineStr">
         <is>
-          <t>Best effort</t>
+          <t>IT-assisted (15 min)</t>
         </is>
       </c>
       <c r="E16" s="41" t="inlineStr">
         <is>
-          <t>80% utilization</t>
+          <t>Self-service (5 min)</t>
         </is>
       </c>
       <c r="F16" s="41" t="inlineStr">
         <is>
-          <t>90%+ with job scheduling</t>
+          <t>Zero-touch pre-configured</t>
         </is>
       </c>
       <c r="G16" s="41" t="inlineStr">
         <is>
-          <t>GPU efficiency and workload optimization</t>
+          <t>User onboarding efficiency</t>
         </is>
       </c>
     </row>
@@ -1526,32 +1526,32 @@
       </c>
       <c r="B17" s="38" t="inlineStr">
         <is>
-          <t>Storage Performance</t>
+          <t>Authentication Time</t>
         </is>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>7000 MB/s NVMe read per workstation</t>
+          <t>&lt;2 second YubiKey tap authentication</t>
         </is>
       </c>
       <c r="D17" s="38" t="inlineStr">
         <is>
-          <t>Standard SSD</t>
+          <t>&lt;5 sec acceptable</t>
         </is>
       </c>
       <c r="E17" s="38" t="inlineStr">
         <is>
-          <t>High-speed NVMe</t>
+          <t>&lt;2 sec target</t>
         </is>
       </c>
       <c r="F17" s="38" t="inlineStr">
         <is>
-          <t>NVMe RAID arrays</t>
+          <t>&lt;1 sec passwordless</t>
         </is>
       </c>
       <c r="G17" s="38" t="inlineStr">
         <is>
-          <t>Local storage I/O performance</t>
+          <t>User experience and productivity</t>
         </is>
       </c>
     </row>
@@ -1563,32 +1563,32 @@
       </c>
       <c r="B18" s="41" t="inlineStr">
         <is>
-          <t>Deployment Environments</t>
+          <t>Deployment Approach</t>
         </is>
       </c>
       <c r="C18" s="39" t="inlineStr">
         <is>
-          <t>Production only</t>
+          <t>Phased rollout by department</t>
         </is>
       </c>
       <c r="D18" s="41" t="inlineStr">
         <is>
-          <t>Single environment</t>
+          <t>Pilot only</t>
         </is>
       </c>
       <c r="E18" s="41" t="inlineStr">
         <is>
-          <t>Production + dev</t>
+          <t>Phased (100 users/2 weeks)</t>
         </is>
       </c>
       <c r="F18" s="41" t="inlineStr">
         <is>
-          <t>Multi-tenant with quotas</t>
+          <t>All at once</t>
         </is>
       </c>
       <c r="G18" s="41" t="inlineStr">
         <is>
-          <t>Environment separation and management</t>
+          <t>Rollout risk and complexity</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D3" s="38" t="inlineStr">
         <is>
-          <t>All Discovery phase tasks (Requirements Assessment Hardware Planning Dataset Analysis)</t>
+          <t>All Discovery phase tasks (User Assessment Compliance Review Integration Analysis)</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
-          <t>All Planning phase tasks (Infrastructure Design Storage Architecture Network Design)</t>
+          <t>All Planning phase tasks (MFA Architecture YubiKey Selection Integration Design)</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D5" s="38" t="inlineStr">
         <is>
-          <t>All Development phase tasks (Workstation Deployment GPU Configuration Storage Setup)</t>
+          <t>All Development phase tasks (SafeID Deployment Token Distribution Integration)</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
-          <t>All Testing phase tasks (Performance Testing GPU Benchmarking Storage Validation)</t>
+          <t>All Testing phase tasks (Pilot Testing Authentication Validation Failover)</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D7" s="38" t="inlineStr">
         <is>
-          <t>All Deployment phase tasks (Production Rollout User Onboarding)</t>
+          <t>All Deployment phase tasks (User Rollout Enforcement Production)</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
-          <t>All Training phase tasks (User Training Documentation)</t>
+          <t>All Training phase tasks (User Training Help Desk Training)</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D9" s="38" t="inlineStr">
         <is>
-          <t>All Closeout phase tasks (Knowledge Transfer Performance Baseline)</t>
+          <t>All Closeout phase tasks (Compliance Documentation Knowledge Transfer)</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1948,12 +1948,12 @@
       </c>
       <c r="B3" s="46" t="inlineStr">
         <is>
-          <t>Requirements Assessment</t>
+          <t>User Assessment</t>
         </is>
       </c>
       <c r="C3" s="46" t="inlineStr">
         <is>
-          <t>Assess AI/ML workload requirements and user workflows</t>
+          <t>Assess user count authentication requirements and use cases</t>
         </is>
       </c>
       <c r="D3" s="46" t="inlineStr">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="E3" s="47" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F3" s="48" t="n">
         <v>1</v>
@@ -1981,7 +1981,7 @@
       <c r="J3" s="46" t="inlineStr"/>
       <c r="K3" s="46" t="inlineStr">
         <is>
-          <t>Includes dataset analysis and GPU sizing for PyTorch/TensorFlow</t>
+          <t>Includes user segmentation and rollout planning</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="B4" s="52" t="inlineStr">
         <is>
-          <t>Hardware Planning</t>
+          <t>Compliance Review</t>
         </is>
       </c>
       <c r="C4" s="52" t="inlineStr">
         <is>
-          <t>Evaluate Dell Precision and GPU configuration options</t>
+          <t>Review CMMC NIST 800-63 and phishing-resistance requirements</t>
         </is>
       </c>
       <c r="D4" s="52" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="E4" s="53" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F4" s="54">
         <f>'Estimate Settings'!$C$3</f>
@@ -2018,7 +2018,7 @@
         <v/>
       </c>
       <c r="H4" s="56" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="I4" s="55">
         <f>TEXT($G4*$H4,"$#,##0")</f>
@@ -2027,7 +2027,7 @@
       <c r="J4" s="52" t="inlineStr"/>
       <c r="K4" s="52" t="inlineStr">
         <is>
-          <t>Customer must provide representative training workloads for benchmarking</t>
+          <t>Customer must provide compliance documentation</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B5" s="46" t="inlineStr">
         <is>
-          <t>Dataset Analysis</t>
+          <t>Integration Analysis</t>
         </is>
       </c>
       <c r="C5" s="46" t="inlineStr">
         <is>
-          <t>Analyze dataset sizes access patterns and storage needs</t>
+          <t>Analyze VPN cloud SSO and identity provider integrations</t>
         </is>
       </c>
       <c r="D5" s="46" t="inlineStr">
@@ -2064,7 +2064,7 @@
         <v/>
       </c>
       <c r="H5" s="50" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="I5" s="49">
         <f>TEXT($G5*$H5,"$#,##0")</f>
@@ -2073,7 +2073,7 @@
       <c r="J5" s="46" t="inlineStr"/>
       <c r="K5" s="46" t="inlineStr">
         <is>
-          <t>Customer must provide dataset inventory and growth projections</t>
+          <t>Identifies integration scope and complexity</t>
         </is>
       </c>
     </row>
@@ -2085,12 +2085,12 @@
       </c>
       <c r="B6" s="52" t="inlineStr">
         <is>
-          <t>Network Assessment</t>
+          <t>Current State</t>
         </is>
       </c>
       <c r="C6" s="52" t="inlineStr">
         <is>
-          <t>Evaluate network infrastructure for 10GbE connectivity</t>
+          <t>Document current authentication and password reset costs</t>
         </is>
       </c>
       <c r="D6" s="52" t="inlineStr">
@@ -2110,7 +2110,7 @@
         <v/>
       </c>
       <c r="H6" s="56" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="I6" s="55">
         <f>TEXT($G6*$H6,"$#,##0")</f>
@@ -2119,7 +2119,7 @@
       <c r="J6" s="52" t="inlineStr"/>
       <c r="K6" s="52" t="inlineStr">
         <is>
-          <t>Identifies network upgrades needed for shared storage access</t>
+          <t>Baseline for ROI calculation and cost savings</t>
         </is>
       </c>
     </row>
@@ -2131,12 +2131,12 @@
       </c>
       <c r="B7" s="46" t="inlineStr">
         <is>
-          <t>Infrastructure Design</t>
+          <t>MFA Architecture</t>
         </is>
       </c>
       <c r="C7" s="46" t="inlineStr">
         <is>
-          <t>Design Dell Precision workstation and GPU architecture</t>
+          <t>Design Dell SafeID architecture with HA and AD integration</t>
         </is>
       </c>
       <c r="D7" s="46" t="inlineStr">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="E7" s="47" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F7" s="57">
         <f>'Estimate Settings'!$C$4</f>
@@ -2164,12 +2164,12 @@
       </c>
       <c r="J7" s="46" t="inlineStr">
         <is>
-          <t>Requirements Assessment</t>
+          <t>User Assessment</t>
         </is>
       </c>
       <c r="K7" s="46" t="inlineStr">
         <is>
-          <t>Deliverable: Hardware architecture with GPU and storage design</t>
+          <t>Deliverable: SafeID architecture with RADIUS and SSO design</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="B8" s="52" t="inlineStr">
         <is>
-          <t>Storage Architecture</t>
+          <t>YubiKey Selection</t>
         </is>
       </c>
       <c r="C8" s="52" t="inlineStr">
         <is>
-          <t>Design PowerScale NAS storage and dataset organization</t>
+          <t>Select YubiKey model and quantity based on requirements</t>
         </is>
       </c>
       <c r="D8" s="52" t="inlineStr">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="E8" s="53" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F8" s="54">
         <f>'Estimate Settings'!$C$4</f>
@@ -2206,7 +2206,7 @@
         <v/>
       </c>
       <c r="H8" s="56" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I8" s="55">
         <f>TEXT($G8*$H8,"$#,##0")</f>
@@ -2214,12 +2214,12 @@
       </c>
       <c r="J8" s="52" t="inlineStr">
         <is>
-          <t>Dataset Analysis</t>
+          <t>Compliance Review</t>
         </is>
       </c>
       <c r="K8" s="52" t="inlineStr">
         <is>
-          <t>Deliverable: Storage capacity plan and NFS/SMB share design</t>
+          <t>YubiKey 5 NFC for FIDO2 and NFC mobile support</t>
         </is>
       </c>
     </row>
@@ -2231,12 +2231,12 @@
       </c>
       <c r="B9" s="46" t="inlineStr">
         <is>
-          <t>Network Design</t>
+          <t>Integration Design</t>
         </is>
       </c>
       <c r="C9" s="46" t="inlineStr">
         <is>
-          <t>Design 10GbE network connectivity and switch topology</t>
+          <t>Design VPN RADIUS and cloud SSO integration architecture</t>
         </is>
       </c>
       <c r="D9" s="46" t="inlineStr">
@@ -2256,7 +2256,7 @@
         <v/>
       </c>
       <c r="H9" s="50" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="I9" s="49">
         <f>TEXT($G9*$H9,"$#,##0")</f>
@@ -2264,12 +2264,12 @@
       </c>
       <c r="J9" s="46" t="inlineStr">
         <is>
-          <t>Network Assessment</t>
+          <t>Integration Analysis</t>
         </is>
       </c>
       <c r="K9" s="46" t="inlineStr">
         <is>
-          <t>Network diagram with workstation-to-storage connectivity</t>
+          <t>RADIUS for VPN SAML for cloud apps</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="B10" s="52" t="inlineStr">
         <is>
-          <t>Project Planning</t>
+          <t>Rollout Planning</t>
         </is>
       </c>
       <c r="C10" s="52" t="inlineStr">
         <is>
-          <t>Develop implementation timeline and procurement schedule</t>
+          <t>Develop phased rollout plan and user communication strategy</t>
         </is>
       </c>
       <c r="D10" s="52" t="inlineStr">
@@ -2306,7 +2306,7 @@
         <v/>
       </c>
       <c r="H10" s="56" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I10" s="55">
         <f>TEXT($G10*$H10,"$#,##0")</f>
@@ -2314,12 +2314,12 @@
       </c>
       <c r="J10" s="52" t="inlineStr">
         <is>
-          <t>Infrastructure Design</t>
+          <t>User Assessment</t>
         </is>
       </c>
       <c r="K10" s="52" t="inlineStr">
         <is>
-          <t>Deliverable: Project plan with hardware lead times</t>
+          <t>Deliverable: Rollout timeline by department with milestones</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="B11" s="46" t="inlineStr">
         <is>
-          <t>Workstation Procurement</t>
+          <t>YubiKey Procurement</t>
         </is>
       </c>
       <c r="C11" s="46" t="inlineStr">
         <is>
-          <t>Order Dell Precision 7960 workstations and components</t>
+          <t>Order YubiKey 5 NFC tokens for all users</t>
         </is>
       </c>
       <c r="D11" s="46" t="inlineStr">
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="E11" s="47" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F11" s="57">
         <f>'Estimate Settings'!$C$5</f>
@@ -2356,7 +2356,7 @@
         <v/>
       </c>
       <c r="H11" s="50" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I11" s="49">
         <f>TEXT($G11*$H11,"$#,##0")</f>
@@ -2364,12 +2364,12 @@
       </c>
       <c r="J11" s="46" t="inlineStr">
         <is>
-          <t>Infrastructure Design</t>
+          <t>YubiKey Selection</t>
         </is>
       </c>
       <c r="K11" s="46" t="inlineStr">
         <is>
-          <t>Coordinate with Dell sales and track delivery schedule</t>
+          <t>Coordinate Dell/Yubico order and track shipping</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="B12" s="52" t="inlineStr">
         <is>
-          <t>GPU Configuration</t>
+          <t>SafeID Deployment</t>
         </is>
       </c>
       <c r="C12" s="52" t="inlineStr">
         <is>
-          <t>Install and configure NVIDIA RTX A6000 GPUs with drivers</t>
+          <t>Deploy Dell SafeID authentication servers in HA configuration</t>
         </is>
       </c>
       <c r="D12" s="52" t="inlineStr">
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="E12" s="53" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F12" s="54">
         <f>'Estimate Settings'!$C$5</f>
@@ -2406,7 +2406,7 @@
         <v/>
       </c>
       <c r="H12" s="56" t="n">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="I12" s="55">
         <f>TEXT($G12*$H12,"$#,##0")</f>
@@ -2414,12 +2414,12 @@
       </c>
       <c r="J12" s="52" t="inlineStr">
         <is>
-          <t>Workstation Procurement</t>
+          <t>MFA Architecture</t>
         </is>
       </c>
       <c r="K12" s="52" t="inlineStr">
         <is>
-          <t>Includes CUDA cuDNN installation and GPU burn-in testing</t>
+          <t>Install SafeID configure AD connector and policies</t>
         </is>
       </c>
     </row>
@@ -2431,12 +2431,12 @@
       </c>
       <c r="B13" s="46" t="inlineStr">
         <is>
-          <t>Storage Deployment</t>
+          <t>VPN Integration</t>
         </is>
       </c>
       <c r="C13" s="46" t="inlineStr">
         <is>
-          <t>Deploy Dell PowerScale F600 NAS and configure shares</t>
+          <t>Integrate SafeID with Cisco AnyConnect via RADIUS</t>
         </is>
       </c>
       <c r="D13" s="46" t="inlineStr">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="E13" s="47" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F13" s="57">
         <f>'Estimate Settings'!$C$5</f>
@@ -2456,7 +2456,7 @@
         <v/>
       </c>
       <c r="H13" s="50" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I13" s="49">
         <f>TEXT($G13*$H13,"$#,##0")</f>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="J13" s="46" t="inlineStr">
         <is>
-          <t>Storage Architecture</t>
+          <t>SafeID Deployment</t>
         </is>
       </c>
       <c r="K13" s="46" t="inlineStr">
         <is>
-          <t>Configure NFS/SMB shares with user permissions and quotas</t>
+          <t>RADIUS configuration and VPN MFA enforcement</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B14" s="52" t="inlineStr">
         <is>
-          <t>Operating System Setup</t>
+          <t>Cloud SSO Setup</t>
         </is>
       </c>
       <c r="C14" s="52" t="inlineStr">
         <is>
-          <t>Install Ubuntu 22.04 LTS and AI/ML software stack</t>
+          <t>Configure Microsoft 365 and AWS SSO with SAML</t>
         </is>
       </c>
       <c r="D14" s="52" t="inlineStr">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="E14" s="53" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F14" s="54">
         <f>'Estimate Settings'!$C$5</f>
@@ -2506,7 +2506,7 @@
         <v/>
       </c>
       <c r="H14" s="56" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="I14" s="55">
         <f>TEXT($G14*$H14,"$#,##0")</f>
@@ -2514,12 +2514,12 @@
       </c>
       <c r="J14" s="52" t="inlineStr">
         <is>
-          <t>GPU Configuration</t>
+          <t>SafeID Deployment</t>
         </is>
       </c>
       <c r="K14" s="52" t="inlineStr">
         <is>
-          <t>Install PyTorch TensorFlow Jupyter and development tools</t>
+          <t>SAML trust and conditional access policies</t>
         </is>
       </c>
     </row>
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B15" s="46" t="inlineStr">
         <is>
-          <t>Network Configuration</t>
+          <t>Enrollment Portal</t>
         </is>
       </c>
       <c r="C15" s="46" t="inlineStr">
         <is>
-          <t>Configure 10GbE network and storage connectivity</t>
+          <t>Deploy self-service YubiKey enrollment web portal</t>
         </is>
       </c>
       <c r="D15" s="46" t="inlineStr">
@@ -2556,7 +2556,7 @@
         <v/>
       </c>
       <c r="H15" s="50" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I15" s="49">
         <f>TEXT($G15*$H15,"$#,##0")</f>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="J15" s="46" t="inlineStr">
         <is>
-          <t>Network Design</t>
+          <t>SafeID Deployment</t>
         </is>
       </c>
       <c r="K15" s="46" t="inlineStr">
         <is>
-          <t>Includes switch configuration VLAN setup and network validation</t>
+          <t>User portal with video tutorials and FAQ</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C16" s="52" t="inlineStr">
         <is>
-          <t>Deploy Datadog for GPU metrics and utilization tracking</t>
+          <t>Configure authentication monitoring and SIEM integration</t>
         </is>
       </c>
       <c r="D16" s="52" t="inlineStr">
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="E16" s="53" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F16" s="54">
         <f>'Estimate Settings'!$C$5</f>
@@ -2606,7 +2606,7 @@
         <v/>
       </c>
       <c r="H16" s="56" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="I16" s="55">
         <f>TEXT($G16*$H16,"$#,##0")</f>
@@ -2614,12 +2614,12 @@
       </c>
       <c r="J16" s="52" t="inlineStr">
         <is>
-          <t>Operating System Setup</t>
+          <t>SafeID Deployment</t>
         </is>
       </c>
       <c r="K16" s="52" t="inlineStr">
         <is>
-          <t>Configure GPU monitoring dashboards and alerting</t>
+          <t>Dashboards for failed logins and token usage</t>
         </is>
       </c>
     </row>
@@ -2631,12 +2631,12 @@
       </c>
       <c r="B17" s="46" t="inlineStr">
         <is>
-          <t>Performance Testing</t>
+          <t>Pilot User Enrollment</t>
         </is>
       </c>
       <c r="C17" s="46" t="inlineStr">
         <is>
-          <t>Benchmark GPU performance with PyTorch/TensorFlow</t>
+          <t>Enroll 50 pilot users with YubiKey tokens</t>
         </is>
       </c>
       <c r="D17" s="46" t="inlineStr">
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="E17" s="47" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F17" s="57">
         <f>'Estimate Settings'!$C$6</f>
@@ -2664,12 +2664,12 @@
       </c>
       <c r="J17" s="46" t="inlineStr">
         <is>
-          <t>Operating System Setup</t>
+          <t>Enrollment Portal</t>
         </is>
       </c>
       <c r="K17" s="46" t="inlineStr">
         <is>
-          <t>Validate GPU utilization and training throughput</t>
+          <t>IT and security team pilot validation</t>
         </is>
       </c>
     </row>
@@ -2681,12 +2681,12 @@
       </c>
       <c r="B18" s="52" t="inlineStr">
         <is>
-          <t>Storage Performance</t>
+          <t>Authentication Testing</t>
         </is>
       </c>
       <c r="C18" s="52" t="inlineStr">
         <is>
-          <t>Test NAS storage throughput and dataset loading speeds</t>
+          <t>Test YubiKey authentication across VPN and cloud apps</t>
         </is>
       </c>
       <c r="D18" s="52" t="inlineStr">
@@ -2706,7 +2706,7 @@
         <v/>
       </c>
       <c r="H18" s="56" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="I18" s="55">
         <f>TEXT($G18*$H18,"$#,##0")</f>
@@ -2714,12 +2714,12 @@
       </c>
       <c r="J18" s="52" t="inlineStr">
         <is>
-          <t>Storage Deployment</t>
+          <t>Pilot User Enrollment</t>
         </is>
       </c>
       <c r="K18" s="52" t="inlineStr">
         <is>
-          <t>Measure read/write performance with large datasets</t>
+          <t>Validate FIDO2 authentication and user experience</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="B19" s="46" t="inlineStr">
         <is>
-          <t>Network Validation</t>
+          <t>Failover Testing</t>
         </is>
       </c>
       <c r="C19" s="46" t="inlineStr">
         <is>
-          <t>Validate 10GbE network performance and bandwidth</t>
+          <t>Test backup authentication and SafeID HA failover</t>
         </is>
       </c>
       <c r="D19" s="46" t="inlineStr">
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="E19" s="47" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F19" s="57">
         <f>'Estimate Settings'!$C$6</f>
@@ -2756,7 +2756,7 @@
         <v/>
       </c>
       <c r="H19" s="50" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="I19" s="49">
         <f>TEXT($G19*$H19,"$#,##0")</f>
@@ -2764,12 +2764,12 @@
       </c>
       <c r="J19" s="46" t="inlineStr">
         <is>
-          <t>Network Configuration</t>
+          <t>Authentication Testing</t>
         </is>
       </c>
       <c r="K19" s="46" t="inlineStr">
         <is>
-          <t>Network throughput testing between workstations and storage</t>
+          <t>Validate SMS backup and HA server failover</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       </c>
       <c r="B20" s="52" t="inlineStr">
         <is>
-          <t>End-to-End Testing</t>
+          <t>User Feedback</t>
         </is>
       </c>
       <c r="C20" s="52" t="inlineStr">
         <is>
-          <t>Run representative training workloads end-to-end</t>
+          <t>Collect pilot feedback and refine enrollment process</t>
         </is>
       </c>
       <c r="D20" s="52" t="inlineStr">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="E20" s="53" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F20" s="54">
         <f>'Estimate Settings'!$C$6</f>
@@ -2814,12 +2814,12 @@
       </c>
       <c r="J20" s="52" t="inlineStr">
         <is>
-          <t>Performance Testing</t>
+          <t>Authentication Testing</t>
         </is>
       </c>
       <c r="K20" s="52" t="inlineStr">
         <is>
-          <t>Customer must provide sample training scripts for validation</t>
+          <t>Customer survey and process improvements</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="B21" s="46" t="inlineStr">
         <is>
-          <t>Production Rollout</t>
+          <t>Token Distribution</t>
         </is>
       </c>
       <c r="C21" s="46" t="inlineStr">
         <is>
-          <t>Deploy remaining workstations to production</t>
+          <t>Distribute YubiKeys to all 500 users</t>
         </is>
       </c>
       <c r="D21" s="46" t="inlineStr">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="E21" s="47" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F21" s="57">
         <f>'Estimate Settings'!$C$7</f>
@@ -2856,7 +2856,7 @@
         <v/>
       </c>
       <c r="H21" s="50" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I21" s="49">
         <f>TEXT($G21*$H21,"$#,##0")</f>
@@ -2864,12 +2864,12 @@
       </c>
       <c r="J21" s="46" t="inlineStr">
         <is>
-          <t>End-to-End Testing</t>
+          <t>YubiKey Procurement</t>
         </is>
       </c>
       <c r="K21" s="46" t="inlineStr">
         <is>
-          <t>Phased rollout with monitoring and issue tracking</t>
+          <t>Ship to home addresses for remote workers</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="B22" s="52" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>User Enrollment</t>
         </is>
       </c>
       <c r="C22" s="52" t="inlineStr">
         <is>
-          <t>Onboard data scientists to new workstation environment</t>
+          <t>Phased enrollment rollout by department</t>
         </is>
       </c>
       <c r="D22" s="52" t="inlineStr">
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="E22" s="53" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F22" s="54">
         <f>'Estimate Settings'!$C$7</f>
@@ -2906,7 +2906,7 @@
         <v/>
       </c>
       <c r="H22" s="56" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="I22" s="55">
         <f>TEXT($G22*$H22,"$#,##0")</f>
@@ -2914,12 +2914,12 @@
       </c>
       <c r="J22" s="52" t="inlineStr">
         <is>
-          <t>Production Rollout</t>
+          <t>Token Distribution</t>
         </is>
       </c>
       <c r="K22" s="52" t="inlineStr">
         <is>
-          <t>Assist with workspace setup and first training runs</t>
+          <t>100 users every 2 weeks with self-service portal</t>
         </is>
       </c>
     </row>
@@ -2931,12 +2931,12 @@
       </c>
       <c r="B23" s="46" t="inlineStr">
         <is>
-          <t>Go-Live Support</t>
+          <t>MFA Enforcement</t>
         </is>
       </c>
       <c r="C23" s="46" t="inlineStr">
         <is>
-          <t>Provide hypercare support during initial production use</t>
+          <t>Enforce MFA for VPN and cloud applications</t>
         </is>
       </c>
       <c r="D23" s="46" t="inlineStr">
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="E23" s="47" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F23" s="57">
         <f>'Estimate Settings'!$C$7</f>
@@ -2956,7 +2956,7 @@
         <v/>
       </c>
       <c r="H23" s="50" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="I23" s="49">
         <f>TEXT($G23*$H23,"$#,##0")</f>
@@ -2964,29 +2964,29 @@
       </c>
       <c r="J23" s="46" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>User Enrollment</t>
         </is>
       </c>
       <c r="K23" s="46" t="inlineStr">
         <is>
-          <t>Daily monitoring and rapid issue response</t>
+          <t>Gradual enforcement after 95% adoption</t>
         </is>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1">
       <c r="A24" s="51" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Deployment</t>
         </is>
       </c>
       <c r="B24" s="52" t="inlineStr">
         <is>
-          <t>Data Scientist Training</t>
+          <t>Hypercare Support</t>
         </is>
       </c>
       <c r="C24" s="52" t="inlineStr">
         <is>
-          <t>Train users on GPU workstation usage and best practices</t>
+          <t>Provide user support during MFA enforcement</t>
         </is>
       </c>
       <c r="D24" s="52" t="inlineStr">
@@ -2995,10 +2995,10 @@
         </is>
       </c>
       <c r="E24" s="53" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F24" s="54">
-        <f>'Estimate Settings'!$C$8</f>
+        <f>'Estimate Settings'!$C$7</f>
         <v/>
       </c>
       <c r="G24" s="55">
@@ -3014,12 +3014,12 @@
       </c>
       <c r="J24" s="52" t="inlineStr">
         <is>
-          <t>Production Rollout</t>
+          <t>MFA Enforcement</t>
         </is>
       </c>
       <c r="K24" s="52" t="inlineStr">
         <is>
-          <t>Includes PyTorch/TensorFlow optimization and GPU profiling</t>
+          <t>Help desk support for token issues</t>
         </is>
       </c>
     </row>
@@ -3031,12 +3031,12 @@
       </c>
       <c r="B25" s="46" t="inlineStr">
         <is>
-          <t>Administrator Training</t>
+          <t>User Training</t>
         </is>
       </c>
       <c r="C25" s="46" t="inlineStr">
         <is>
-          <t>Train IT staff on workstation and storage management</t>
+          <t>Train users on YubiKey usage and enrollment</t>
         </is>
       </c>
       <c r="D25" s="46" t="inlineStr">
@@ -3056,7 +3056,7 @@
         <v/>
       </c>
       <c r="H25" s="50" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I25" s="49">
         <f>TEXT($G25*$H25,"$#,##0")</f>
@@ -3064,12 +3064,12 @@
       </c>
       <c r="J25" s="46" t="inlineStr">
         <is>
-          <t>Data Scientist Training</t>
+          <t>Hypercare Support</t>
         </is>
       </c>
       <c r="K25" s="46" t="inlineStr">
         <is>
-          <t>Includes GPU monitoring Datadog and PowerScale administration</t>
+          <t>Video tutorial live webinar and FAQ</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B26" s="52" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Help Desk Training</t>
         </is>
       </c>
       <c r="C26" s="52" t="inlineStr">
         <is>
-          <t>Create user guides and operational runbooks</t>
+          <t>Train help desk on YubiKey troubleshooting and token reset</t>
         </is>
       </c>
       <c r="D26" s="52" t="inlineStr">
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="E26" s="53" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F26" s="54">
         <f>'Estimate Settings'!$C$8</f>
@@ -3106,7 +3106,7 @@
         <v/>
       </c>
       <c r="H26" s="56" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="I26" s="55">
         <f>TEXT($G26*$H26,"$#,##0")</f>
@@ -3114,29 +3114,29 @@
       </c>
       <c r="J26" s="52" t="inlineStr">
         <is>
-          <t>Administrator Training</t>
+          <t>User Training</t>
         </is>
       </c>
       <c r="K26" s="52" t="inlineStr">
         <is>
-          <t>Deliverable: User guides troubleshooting procedures GPU optimization</t>
+          <t>SafeID administration backup auth token replacement</t>
         </is>
       </c>
     </row>
     <row r="27" ht="26" customHeight="1">
       <c r="A27" s="45" t="inlineStr">
         <is>
-          <t>Closeout</t>
+          <t>Training</t>
         </is>
       </c>
       <c r="B27" s="46" t="inlineStr">
         <is>
-          <t>Knowledge Transfer</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="C27" s="46" t="inlineStr">
         <is>
-          <t>Transfer solution ownership to IT operations</t>
+          <t>Create user guides and help desk runbooks</t>
         </is>
       </c>
       <c r="D27" s="46" t="inlineStr">
@@ -3148,7 +3148,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="57">
-        <f>'Estimate Settings'!$C$9</f>
+        <f>'Estimate Settings'!$C$8</f>
         <v/>
       </c>
       <c r="G27" s="49">
@@ -3156,7 +3156,7 @@
         <v/>
       </c>
       <c r="H27" s="50" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I27" s="49">
         <f>TEXT($G27*$H27,"$#,##0")</f>
@@ -3164,12 +3164,12 @@
       </c>
       <c r="J27" s="46" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Help Desk Training</t>
         </is>
       </c>
       <c r="K27" s="46" t="inlineStr">
         <is>
-          <t>Comprehensive handover including hardware specs and procedures</t>
+          <t>Deliverable: User quick-start guide troubleshooting procedures</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       </c>
       <c r="B28" s="52" t="inlineStr">
         <is>
-          <t>Performance Baseline</t>
+          <t>Compliance Documentation</t>
         </is>
       </c>
       <c r="C28" s="52" t="inlineStr">
         <is>
-          <t>Establish GPU utilization and performance baselines</t>
+          <t>Complete CMMC Level 2 compliance documentation</t>
         </is>
       </c>
       <c r="D28" s="52" t="inlineStr">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="E28" s="53" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F28" s="54">
         <f>'Estimate Settings'!$C$9</f>
@@ -3206,7 +3206,7 @@
         <v/>
       </c>
       <c r="H28" s="56" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="I28" s="55">
         <f>TEXT($G28*$H28,"$#,##0")</f>
@@ -3214,42 +3214,41 @@
       </c>
       <c r="J28" s="52" t="inlineStr">
         <is>
-          <t>Knowledge Transfer</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="K28" s="52" t="inlineStr">
         <is>
-          <t>Establishes GPU efficiency metrics and cost tracking</t>
+          <t>MFA evidence for CMMC assessor review</t>
         </is>
       </c>
     </row>
     <row r="29" ht="26" customHeight="1">
       <c r="A29" s="45" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Closeout</t>
         </is>
       </c>
       <c r="B29" s="46" t="inlineStr">
         <is>
-          <t>Technical Leadership</t>
+          <t>Knowledge Transfer</t>
         </is>
       </c>
       <c r="C29" s="46" t="inlineStr">
         <is>
-          <t>Quarterback technical oversight and architecture review</t>
+          <t>Transfer SafeID ownership to security operations</t>
         </is>
       </c>
       <c r="D29" s="46" t="inlineStr">
         <is>
-          <t>EO Quarterback</t>
-        </is>
-      </c>
-      <c r="E29" s="49">
-        <f>ROUND(SUM($G$3:$G$28)*0.10,0)</f>
-        <v/>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E29" s="47" t="n">
+        <v>8</v>
       </c>
       <c r="F29" s="57">
-        <f>'Estimate Settings'!$C$11</f>
+        <f>'Estimate Settings'!$C$9</f>
         <v/>
       </c>
       <c r="G29" s="49">
@@ -3257,16 +3256,20 @@
         <v/>
       </c>
       <c r="H29" s="50" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I29" s="49">
         <f>TEXT($G29*$H29,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J29" s="46" t="inlineStr"/>
+      <c r="J29" s="46" t="inlineStr">
+        <is>
+          <t>Compliance Documentation</t>
+        </is>
+      </c>
       <c r="K29" s="46" t="inlineStr">
         <is>
-          <t>Dell Precision architecture review and GPU optimization guidance</t>
+          <t>Handover including architecture and procedures</t>
         </is>
       </c>
     </row>
@@ -3278,25 +3281,25 @@
       </c>
       <c r="B30" s="52" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Technical Leadership</t>
         </is>
       </c>
       <c r="C30" s="52" t="inlineStr">
         <is>
-          <t>Project coordination planning and management activities</t>
+          <t>Quarterback technical oversight and compliance guidance</t>
         </is>
       </c>
       <c r="D30" s="52" t="inlineStr">
         <is>
-          <t>EO Project Manager</t>
+          <t>EO Quarterback</t>
         </is>
       </c>
       <c r="E30" s="55">
-        <f>ROUND(SUM($G$3:$G$28)*0.10,0)</f>
+        <f>ROUND(SUM($G$3:$G$29)*0.10,0)</f>
         <v/>
       </c>
       <c r="F30" s="54">
-        <f>'Estimate Settings'!$C$10</f>
+        <f>'Estimate Settings'!$C$11</f>
         <v/>
       </c>
       <c r="G30" s="55">
@@ -3304,7 +3307,7 @@
         <v/>
       </c>
       <c r="H30" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I30" s="55">
         <f>TEXT($G30*$H30,"$#,##0")</f>
@@ -3313,43 +3316,90 @@
       <c r="J30" s="52" t="inlineStr"/>
       <c r="K30" s="52" t="inlineStr">
         <is>
-          <t>Includes status reporting risk management and vendor coordination</t>
+          <t>CMMC compliance guidance and architecture review</t>
         </is>
       </c>
     </row>
     <row r="31" ht="26" customHeight="1">
-      <c r="A31" s="58" t="inlineStr"/>
-      <c r="B31" s="58" t="inlineStr"/>
-      <c r="C31" s="58" t="inlineStr"/>
-      <c r="D31" s="58" t="inlineStr"/>
-      <c r="E31" s="58" t="inlineStr"/>
-      <c r="F31" s="59" t="inlineStr">
+      <c r="A31" s="45" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B31" s="46" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="C31" s="46" t="inlineStr">
+        <is>
+          <t>Project coordination planning and change management</t>
+        </is>
+      </c>
+      <c r="D31" s="46" t="inlineStr">
+        <is>
+          <t>EO Project Manager</t>
+        </is>
+      </c>
+      <c r="E31" s="49">
+        <f>ROUND(SUM($G$3:$G$29)*0.10,0)</f>
+        <v/>
+      </c>
+      <c r="F31" s="57">
+        <f>'Estimate Settings'!$C$10</f>
+        <v/>
+      </c>
+      <c r="G31" s="49">
+        <f>$E31*$F31</f>
+        <v/>
+      </c>
+      <c r="H31" s="50" t="n">
+        <v>175</v>
+      </c>
+      <c r="I31" s="49">
+        <f>TEXT($G31*$H31,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J31" s="46" t="inlineStr"/>
+      <c r="K31" s="46" t="inlineStr">
+        <is>
+          <t>Includes rollout coordination risk management user communication</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="26" customHeight="1">
+      <c r="A32" s="58" t="inlineStr"/>
+      <c r="B32" s="58" t="inlineStr"/>
+      <c r="C32" s="58" t="inlineStr"/>
+      <c r="D32" s="58" t="inlineStr"/>
+      <c r="E32" s="58" t="inlineStr"/>
+      <c r="F32" s="59" t="inlineStr">
         <is>
           <t>TOTAL HOURS</t>
         </is>
       </c>
-      <c r="G31" s="59">
-        <f>SUM($G$3:$G$30)</f>
-        <v/>
-      </c>
-      <c r="H31" s="59" t="inlineStr">
+      <c r="G32" s="59">
+        <f>SUM($G$3:$G$31)</f>
+        <v/>
+      </c>
+      <c r="H32" s="59" t="inlineStr">
         <is>
           <t>TOTAL COST</t>
         </is>
       </c>
-      <c r="I31" s="59">
-        <f>TEXT(SUMPRODUCT($G$3:$G$30,$H$3:$H$30),"$#,##0")</f>
-        <v/>
-      </c>
-      <c r="J31" s="58" t="inlineStr"/>
-      <c r="K31" s="58" t="inlineStr">
-        <is>
-          <t>EO Sales Engineer: Update phase multipliers in Estimate Settings based on deployment scale</t>
+      <c r="I32" s="59">
+        <f>TEXT(SUMPRODUCT($G$3:$G$31,$H$3:$H$31),"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J32" s="58" t="inlineStr"/>
+      <c r="K32" s="58" t="inlineStr">
+        <is>
+          <t>EO Sales Engineer: Update phase multipliers based on user count</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K31"/>
+  <autoFilter ref="A2:K32"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -3408,11 +3458,11 @@
         </is>
       </c>
       <c r="B3" s="60" t="n">
-        <v>-15000</v>
+        <v>-10000</v>
       </c>
       <c r="C3" s="38" t="inlineStr">
         <is>
-          <t>Dell Titanium Partner discount on hardware procurement (negotiate 5-10% on volume orders)</t>
+          <t>Dell Titanium Partner discount on SafeID software and YubiKey hardware (negotiate 5-10%)</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3488,7 @@
         </is>
       </c>
       <c r="B5" s="63">
-        <f>SUMPRODUCT($G$3:$G$30,$H$3:$H$30)-15000</f>
+        <f>SUMPRODUCT($G$3:$G$31,$H$3:$H$31)-10000</f>
         <v/>
       </c>
       <c r="C5" s="62" t="n"/>
